--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value871.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value871.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.180403265591381</v>
+        <v>1.877306342124939</v>
       </c>
       <c r="B1">
-        <v>2.586219300530059</v>
+        <v>3.058123588562012</v>
       </c>
       <c r="C1">
-        <v>3.933391344468133</v>
+        <v>2.618117094039917</v>
       </c>
       <c r="D1">
-        <v>2.736058509447098</v>
+        <v>2.265565395355225</v>
       </c>
       <c r="E1">
-        <v>1.147963867131342</v>
+        <v>1.663646340370178</v>
       </c>
     </row>
   </sheetData>
